--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_6_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_6_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2289533.784476229</v>
+        <v>2289533.784476228</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177832</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177832</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647583070.161899</v>
+        <v>62581087.82270409</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +679,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H2" t="n">
         <v>347.8590406130752</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756825</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -764,7 +764,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>107.3959878205678</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.4706963201041</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -1001,7 +1001,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205678</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G8" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H8" t="n">
         <v>347.8590406130752</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>359.6204767756825</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1238,7 +1238,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>107.3959878205678</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
-        <v>559.5765741190093</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>359.6204767756825</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1672,7 +1672,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V14" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W14" t="n">
         <v>638.3734759809475</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
-        <v>559.5765741190093</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U17" t="n">
         <v>648.751427201877</v>
@@ -2098,7 +2098,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F20" t="n">
-        <v>403.5012844150407</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
         <v>397.8840054528454</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963201041</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="H25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D26" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E26" t="n">
         <v>404.3632896068686</v>
@@ -2617,7 +2617,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U26" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V26" t="n">
         <v>629.8510241668239</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F29" t="n">
         <v>404.8896287080119</v>
@@ -2863,7 +2863,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y29" t="n">
         <v>511.3174326828064</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V32" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W32" t="n">
         <v>638.3734759809475</v>
@@ -3103,7 +3103,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="33">
@@ -3204,58 +3204,58 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X35" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y35" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="36">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S36" t="n">
         <v>408.192915058951</v>
@@ -3413,7 +3413,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X36" t="n">
         <v>419.8627394453875</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U38" t="n">
         <v>648.751427201877</v>
       </c>
       <c r="V38" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W38" t="n">
         <v>638.3734759809475</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
         <v>408.192915058951</v>
@@ -3650,7 +3650,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U41" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V41" t="n">
         <v>629.8510241668239</v>
@@ -3875,7 +3875,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3887,7 +3887,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3991,7 +3991,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518834</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.14699002086</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324042</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069907</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>2550.716641651426</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010449</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523952</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396624</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337368</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434781</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791558</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.511963638411</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403253</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4412,10 +4412,10 @@
         <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J3" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K3" t="n">
         <v>1250.415257213079</v>
@@ -4470,76 +4470,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.9600000000001</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="C4" t="n">
-        <v>140.9600000000001</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="D4" t="n">
-        <v>140.9600000000001</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E4" t="n">
-        <v>140.9600000000001</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F4" t="n">
-        <v>140.9600000000001</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G4" t="n">
-        <v>140.9600000000001</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H4" t="n">
-        <v>140.9600000000001</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I4" t="n">
-        <v>140.9600000000001</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J4" t="n">
-        <v>290.4466099967137</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L4" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
-        <v>351.2038120028188</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="S4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="T4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>140.9600000000001</v>
+        <v>178.8560479548817</v>
       </c>
       <c r="X4" t="n">
-        <v>140.9600000000001</v>
+        <v>178.8560479548817</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.9600000000001</v>
+        <v>178.8560479548817</v>
       </c>
     </row>
     <row r="5">
@@ -4549,76 +4549,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347546135</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048162</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351343</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071678</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342926</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233376</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>140.9600000000001</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>1025.778834695947</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K5" t="n">
-        <v>1765.421978263786</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L5" t="n">
-        <v>2683.01470158037</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523952</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396624</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337368</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434781</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183184</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464011</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542923</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818859</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908811</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665712</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430554</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J6" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K6" t="n">
         <v>1250.415257213079</v>
@@ -4707,76 +4707,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>265.3209725919356</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178875</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q7" t="n">
-        <v>351.2038120028188</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2580.161715518834</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C8" t="n">
-        <v>2126.14699002086</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D8" t="n">
-        <v>1711.662994324042</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
-        <v>894.2358041069907</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G8" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154227</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
         <v>2124.71495243113</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010449</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523952</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396624</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337368</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434781</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4826.598134791558</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3583.511963638411</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3067.029708403253</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J9" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K9" t="n">
         <v>1250.415257213079</v>
@@ -4944,76 +4944,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9600000000001</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="C10" t="n">
-        <v>140.9600000000001</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="D10" t="n">
-        <v>140.9600000000001</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="E10" t="n">
-        <v>140.9600000000001</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9600000000001</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="G10" t="n">
-        <v>140.9600000000001</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="H10" t="n">
-        <v>140.9600000000001</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="I10" t="n">
-        <v>140.9600000000001</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178875</v>
+        <v>409.2181261040298</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104936</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104936</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104936</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104936</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104936</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q10" t="n">
-        <v>351.2038120028188</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.9600000000001</v>
+        <v>252.3693006790323</v>
       </c>
     </row>
     <row r="11">
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518834</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.14699002086</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324042</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
         <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069907</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154227</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L11" t="n">
-        <v>3071.357825473571</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M11" t="n">
-        <v>3553.537024987074</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N11" t="n">
-        <v>4118.580088859746</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.73497180049</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897903</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183184</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
         <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515622</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791558</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.77644188151</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.511963638411</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403253</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H12" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I12" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K12" t="n">
         <v>1250.415257213079</v>
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893197</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V13" t="n">
-        <v>140.9600000000001</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518834</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.14699002086</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324042</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
         <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069907</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154227</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
         <v>2124.71495243113</v>
       </c>
       <c r="L14" t="n">
-        <v>3071.357825473571</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M14" t="n">
-        <v>3553.537024987074</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N14" t="n">
-        <v>4118.580088859746</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O14" t="n">
-        <v>5028.73497180049</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897903</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791558</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.77644188151</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.511963638411</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403253</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G15" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H15" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I15" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J15" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K15" t="n">
         <v>1250.415257213079</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9600000000001</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="17">
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518834</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.14699002086</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324042</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069907</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960357</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H17" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154227</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1901.586501346484</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L17" t="n">
-        <v>2819.179224663067</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M17" t="n">
-        <v>3301.358424176569</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N17" t="n">
-        <v>3866.401488049241</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O17" t="n">
-        <v>4776.556370989985</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434781</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183184</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791558</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.511963638411</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403253</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H18" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I18" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K18" t="n">
         <v>1250.415257213079</v>
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H19" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I19" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546135</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048162</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351343</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071678</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069907</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>2550.716641651426</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010449</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523952</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396624</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337368</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434781</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183184</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464011</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542923</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818859</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908811</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665712</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430554</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H21" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I21" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K21" t="n">
         <v>1250.415257213079</v>
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H22" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I22" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546135</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048162</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351343</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071678</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342926</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233376</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154227</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>2124.71495243113</v>
+        <v>1929.233537634604</v>
       </c>
       <c r="L23" t="n">
-        <v>3681.051378010449</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M23" t="n">
-        <v>4163.230577523952</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396624</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337368</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434781</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183184</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464011</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542923</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818859</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908811</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665712</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430554</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H24" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I24" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K24" t="n">
         <v>1250.415257213079</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H25" t="n">
-        <v>140.9600000000001</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I25" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
         <v>1711.662994324041</v>
@@ -6235,13 +6235,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
-        <v>2595.354589746543</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M26" t="n">
-        <v>3077.533789260046</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N26" t="n">
         <v>4728.273641396618</v>
@@ -6265,19 +6265,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6366,25 +6366,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
         <v>140.96</v>
@@ -6414,28 +6414,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E29" t="n">
         <v>1303.215227044376</v>
@@ -6469,13 +6469,13 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M29" t="n">
         <v>4163.230577523946</v>
@@ -6511,10 +6511,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6657,22 +6657,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6709,10 +6709,10 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1936.671378010443</v>
+        <v>1713.790319599031</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010443</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M32" t="n">
         <v>4163.230577523946</v>
@@ -6742,13 +6742,13 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
         <v>3067.029708403252</v>
@@ -6840,16 +6840,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
         <v>140.96</v>
@@ -6903,13 +6903,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6946,7 +6946,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L35" t="n">
         <v>3681.051378010443</v>
@@ -6985,7 +6985,7 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
         <v>3067.029708403252</v>
@@ -7046,19 +7046,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S36" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T36" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
         <v>3503.082427021609</v>
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H37" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7143,10 +7143,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="38">
@@ -7210,10 +7210,10 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
         <v>4826.598134791557</v>
@@ -7283,19 +7283,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W39" t="n">
         <v>3503.082427021609</v>
@@ -7314,25 +7314,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I40" t="n">
         <v>140.96</v>
@@ -7371,19 +7371,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="41">
@@ -7444,10 +7444,10 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U41" t="n">
         <v>5462.811290515621</v>
@@ -7523,16 +7523,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
         <v>3503.082427021609</v>
@@ -7630,13 +7630,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
         <v>1303.215227044376</v>
@@ -7681,25 +7681,25 @@
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7757,7 +7757,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
@@ -7788,25 +7788,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I46" t="n">
         <v>140.96</v>
@@ -7836,28 +7836,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="R46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
-        <v>214.8909222650923</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8218,19 +8218,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>96.62737647160202</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M5" t="n">
-        <v>1008.117854979878</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>645.1956588512489</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L11" t="n">
-        <v>29.34358558167469</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8938,7 +8938,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>29.34358558167469</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9172,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>491.4928437002243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>214.8909222650923</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>519.4191429811535</v>
       </c>
       <c r="L23" t="n">
-        <v>645.1956588512489</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9883,16 +9883,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>265.4073538855534</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>214.8909222650855</v>
+        <v>301.799730824009</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10357,13 +10357,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>526.9321130577587</v>
+        <v>301.7997308240091</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
-        <v>1.388344292971624</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.388344292971965</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23676,10 +23676,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>158.5641654399917</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.388344292971624</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.388344292971169</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24180,7 +24180,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R22" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S22" t="n">
         <v>316.45975839138</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292971112</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24384,13 +24384,13 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G25" t="n">
-        <v>242.4092826775956</v>
+        <v>174.6006382788776</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24627,7 +24627,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R28" t="n">
-        <v>540.3327294840725</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S28" t="n">
         <v>316.45975839138</v>
@@ -24672,7 +24672,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X28" t="n">
-        <v>247.4436454301076</v>
+        <v>82.23085688668115</v>
       </c>
       <c r="Y28" t="n">
         <v>287.4653528494624</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24751,7 +24751,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>130.9590368616381</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24991,7 +24991,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25092,7 +25092,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F34" t="n">
-        <v>109.1700674243155</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G34" t="n">
         <v>242.4092826775956</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25225,10 +25225,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C37" t="n">
-        <v>272.7252466480447</v>
+        <v>204.9166022493267</v>
       </c>
       <c r="D37" t="n">
         <v>285.5362180555555</v>
@@ -25338,7 +25338,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25383,7 +25383,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X37" t="n">
-        <v>82.23085688668115</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y37" t="n">
         <v>287.4653528494624</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25572,10 +25572,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>83.00604195770714</v>
       </c>
       <c r="V40" t="n">
         <v>199.1703102162162</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C46" t="n">
-        <v>272.7252466480447</v>
+        <v>204.9166022493267</v>
       </c>
       <c r="D46" t="n">
         <v>285.5362180555555</v>
@@ -26049,7 +26049,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R46" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S46" t="n">
         <v>316.45975839138</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16812.76883547376</v>
+        <v>1391548.529551329</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33359.18696190735</v>
+        <v>2745378.847908867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49905.60508834094</v>
+        <v>4099209.166266407</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68738.20278394978</v>
+        <v>5311855.334621574</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87570.80047955859</v>
+        <v>6524501.502976741</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106403.3981751674</v>
+        <v>7737147.671331899</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125235.9958707762</v>
+        <v>8949793.839687053</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144068.5935663851</v>
+        <v>10162440.00804221</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162901.1912619939</v>
+        <v>11375086.17639736</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181733.7889576027</v>
+        <v>12587732.34475252</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200566.3866532115</v>
+        <v>13800378.51310768</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219398.9843488203</v>
+        <v>15013024.68146284</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238231.5820444293</v>
+        <v>16225670.84981802</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257064.1797400384</v>
+        <v>17438317.0181732</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275896.7774356474</v>
+        <v>18650963.18652837</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245015</v>
+        <v>850079.5022245012</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245015</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="D2" t="n">
         <v>850079.5022245016</v>
       </c>
       <c r="E2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="F2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="I2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="J2" t="n">
         <v>761428.9894323125</v>
       </c>
-      <c r="F2" t="n">
-        <v>761428.9894323127</v>
-      </c>
-      <c r="G2" t="n">
-        <v>761428.9894323128</v>
-      </c>
-      <c r="H2" t="n">
-        <v>761428.9894323128</v>
-      </c>
-      <c r="I2" t="n">
-        <v>761428.9894323128</v>
-      </c>
-      <c r="J2" t="n">
-        <v>761428.9894323127</v>
-      </c>
       <c r="K2" t="n">
+        <v>761428.9894323125</v>
+      </c>
+      <c r="L2" t="n">
         <v>761428.9894323123</v>
       </c>
-      <c r="L2" t="n">
-        <v>761428.9894323124</v>
-      </c>
       <c r="M2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="N2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323127</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323127</v>
       </c>
     </row>
     <row r="3">
@@ -26423,28 +26423,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114221.2779508279</v>
+        <v>114221.2779508281</v>
       </c>
       <c r="C4" t="n">
-        <v>113919.3268963467</v>
+        <v>113919.326896347</v>
       </c>
       <c r="D4" t="n">
-        <v>113616.9662264137</v>
+        <v>113616.966226414</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.93672769599</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.93672769599</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="G4" t="n">
-        <v>38928.936727696</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="H4" t="n">
-        <v>38928.936727696</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="I4" t="n">
-        <v>38928.936727696</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="J4" t="n">
         <v>38928.93672769592</v>
@@ -26530,46 +26530,46 @@
         <v>-1481447.775726327</v>
       </c>
       <c r="C6" t="n">
-        <v>563553.1753281547</v>
+        <v>563553.1753281546</v>
       </c>
       <c r="D6" t="n">
-        <v>563855.5359980878</v>
+        <v>563855.5359980876</v>
       </c>
       <c r="E6" t="n">
+        <v>583520.6527046164</v>
+      </c>
+      <c r="F6" t="n">
+        <v>583520.6527046164</v>
+      </c>
+      <c r="G6" t="n">
+        <v>583520.6527046164</v>
+      </c>
+      <c r="H6" t="n">
         <v>583520.6527046165</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
+        <v>583520.6527046165</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-36703.34729538334</v>
+      </c>
+      <c r="K6" t="n">
         <v>583520.6527046167</v>
       </c>
-      <c r="G6" t="n">
-        <v>583520.6527046168</v>
-      </c>
-      <c r="H6" t="n">
-        <v>583520.6527046168</v>
-      </c>
-      <c r="I6" t="n">
-        <v>583520.6527046168</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-36703.34729538325</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>583520.6527046164</v>
       </c>
-      <c r="L6" t="n">
-        <v>583520.6527046165</v>
-      </c>
       <c r="M6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046164</v>
       </c>
       <c r="N6" t="n">
         <v>583520.6527046164</v>
       </c>
       <c r="O6" t="n">
-        <v>583520.6527046164</v>
+        <v>583520.6527046168</v>
       </c>
       <c r="P6" t="n">
-        <v>583520.6527046167</v>
+        <v>583520.6527046168</v>
       </c>
     </row>
   </sheetData>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292971965</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573148</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.1138003370787</v>
+        <v>400</v>
       </c>
       <c r="C4" t="n">
         <v>272.7252466480447</v>
@@ -27699,7 +27699,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
@@ -27729,7 +27729,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W4" t="n">
-        <v>226.3728098387097</v>
+        <v>264.651646156772</v>
       </c>
       <c r="X4" t="n">
         <v>247.4436454301076</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292971112</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573148</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F7" t="n">
-        <v>400</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G7" t="n">
-        <v>267.9571746263212</v>
+        <v>242.4092826775956</v>
       </c>
       <c r="H7" t="n">
         <v>205.3472244622743</v>
@@ -27930,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="L7" t="n">
         <v>31.85592323974635</v>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.388344292971965</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573148</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E10" t="n">
-        <v>280.9809048369565</v>
+        <v>288.4174860776474</v>
       </c>
       <c r="F10" t="n">
         <v>274.3828559677419</v>
@@ -28164,7 +28164,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28182,7 +28182,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -28209,7 +28209,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y10" t="n">
-        <v>287.4653528494624</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
@@ -34828,13 +34828,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L2" t="n">
-        <v>1141.752258948509</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34849,7 +34849,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34962,7 +34962,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>112.8861996629213</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34995,7 +34995,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35025,7 +35025,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>38.27883631806233</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -35062,19 +35062,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>747.1142864321607</v>
+        <v>843.741662903763</v>
       </c>
       <c r="L5" t="n">
-        <v>926.8613366834174</v>
+        <v>1762</v>
       </c>
       <c r="M5" t="n">
-        <v>1495.167551458164</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
@@ -35211,10 +35211,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>125.6171440322581</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.54789194872559</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -35226,7 +35226,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>17.57070160869296</v>
+        <v>168.7357375896767</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35308,7 +35308,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>1572.056995534666</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35445,7 +35445,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>7.436581240690854</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -35460,7 +35460,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
         <v>17.57070160869296</v>
@@ -35478,7 +35478,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35505,7 +35505,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>112.5346471505376</v>
       </c>
     </row>
     <row r="11">
@@ -35542,10 +35542,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L11" t="n">
-        <v>956.2049222650917</v>
+        <v>1762</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35560,7 +35560,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35782,7 +35782,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>956.2049222650917</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35797,7 +35797,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
         <v>118.0642805686905</v>
@@ -36016,10 +36016,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1238.607130132385</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L17" t="n">
-        <v>926.8613366834172</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36031,7 +36031,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36250,13 +36250,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
-        <v>1141.752258948509</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36490,10 +36490,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1463.98940395526</v>
+        <v>1266.533429413314</v>
       </c>
       <c r="L23" t="n">
-        <v>1572.056995534666</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,7 +36502,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P23" t="n">
         <v>844.3104324216301</v>
@@ -36727,16 +36727,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>1192.268690568971</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
@@ -36961,16 +36961,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>1141.752258948503</v>
+        <v>1228.661067507426</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
@@ -37201,13 +37201,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1274.04639948992</v>
+        <v>1048.91401725617</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M32" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
@@ -37438,10 +37438,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
